--- a/070623_AOB_out/AOB1k_stat.xlsx
+++ b/070623_AOB_out/AOB1k_stat.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fina\INRAE_Project\microservices\070623_AOB_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28360099-7998-44AE-B934-72D6012345F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234ED1F9-ACF8-4F5D-A7F0-8BB56B2D9717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{134D7EC5-53F7-43B5-A52F-D44BAD0F1A8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{134D7EC5-53F7-43B5-A52F-D44BAD0F1A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PERMANOV_Bulk" sheetId="4" r:id="rId1"/>
     <sheet name="PERMANOV_Rhizo" sheetId="6" r:id="rId2"/>
+    <sheet name="AlphaDiv_Bulk" sheetId="7" r:id="rId3"/>
+    <sheet name="AlphaDiv_Rhizo" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_170723_Permanov_Bulk" localSheetId="0">PERMANOV_Bulk!$A$2:$G$12</definedName>
@@ -25,6 +27,12 @@
     <definedName name="_170723_Permanov_Rhizo_JAC" localSheetId="1">PERMANOV_Rhizo!$A$15:$G$25</definedName>
     <definedName name="_170723_Permanov_Rhizo_UWUF" localSheetId="1">PERMANOV_Rhizo!$A$41:$H$51</definedName>
     <definedName name="_170723_Permanov_Rhizo_WUF" localSheetId="1">PERMANOV_Rhizo!$A$28:$G$38</definedName>
+    <definedName name="_180723_AlphaDiv_Bulk_Rich" localSheetId="2">AlphaDiv_Bulk!$A$2:$H$10</definedName>
+    <definedName name="_200723_AlphaDiv_Bulk_InvSimp" localSheetId="2">AlphaDiv_Bulk!$A$24:$G$32</definedName>
+    <definedName name="_200723_AlphaDiv_Bulk_Sha_1" localSheetId="2">AlphaDiv_Bulk!$A$13:$H$21</definedName>
+    <definedName name="_200723_AlphaDiv_Rhizo_InvSimp" localSheetId="3">AlphaDiv_Rhizo!$A$24:$G$32</definedName>
+    <definedName name="_200723_AlphaDiv_Rhizo_Rich" localSheetId="3">AlphaDiv_Rhizo!$A$2:$H$10</definedName>
+    <definedName name="_200723_AlphaDiv_Rhizo_Sha" localSheetId="3">AlphaDiv_Rhizo!$A$13:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -152,26 +160,107 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{C5EA52AF-282F-44CB-A210-C2734BF1453F}" keepAlive="1" name="Query - 170723_Permanov_Bulk" description="Connection to the '170723_Permanov_Bulk' query in the workbook." type="5" refreshedVersion="0" background="1">
+  <connection id="9" xr16:uid="{04682132-65CC-4633-B97A-77CCAEC54265}" name="180723_AlphaDiv_Bulk_Rich" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\Fina\INRAE_Project\microservices\070623_AOB_out\stat_1k\180723_AlphaDiv_Bulk_Rich.txt" delimited="0" decimal="," thousands=" ">
+      <textFields count="8">
+        <textField/>
+        <textField position="25"/>
+        <textField position="33"/>
+        <textField position="41"/>
+        <textField position="47"/>
+        <textField position="54"/>
+        <textField position="62"/>
+        <textField position="72"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" xr16:uid="{2CCCDAD7-120F-403D-8DDE-1759612AD007}" name="200723_AlphaDiv_Bulk_InvSimp" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\Fina\INRAE_Project\microservices\070623_AOB_out\stat_1k\200723_AlphaDiv_Bulk_InvSimp.txt" delimited="0" decimal="," thousands=" ">
+      <textFields count="7">
+        <textField/>
+        <textField position="25"/>
+        <textField position="32"/>
+        <textField position="40"/>
+        <textField position="46"/>
+        <textField position="53"/>
+        <textField position="61"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" xr16:uid="{2DBABDC6-E33A-4F17-847F-D2059EBD83E0}" name="200723_AlphaDiv_Bulk_Sha" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\Fina\INRAE_Project\microservices\070623_AOB_out\stat_1k\200723_AlphaDiv_Bulk_Sha.txt" delimited="0" decimal="," thousands=" ">
+      <textFields count="8">
+        <textField/>
+        <textField position="26"/>
+        <textField position="33"/>
+        <textField position="41"/>
+        <textField position="47"/>
+        <textField position="54"/>
+        <textField position="62"/>
+        <textField position="72"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" xr16:uid="{55AF02AC-C283-432F-A540-CF3501276920}" name="200723_AlphaDiv_Rhizo_InvSimp" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\Fina\INRAE_Project\microservices\070623_AOB_out\stat_1k\200723_AlphaDiv_Rhizo_InvSimp.txt" delimited="0" decimal="," thousands=" ">
+      <textFields count="7">
+        <textField/>
+        <textField position="25"/>
+        <textField position="32"/>
+        <textField position="40"/>
+        <textField position="46"/>
+        <textField position="52"/>
+        <textField position="60"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" xr16:uid="{DCAF087A-DBDE-4008-BD7F-C671800447F9}" name="200723_AlphaDiv_Rhizo_Rich" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\Fina\INRAE_Project\microservices\070623_AOB_out\stat_1k\200723_AlphaDiv_Rhizo_Rich.txt" delimited="0" decimal="," thousands=" ">
+      <textFields count="8">
+        <textField/>
+        <textField position="25"/>
+        <textField position="32"/>
+        <textField position="40"/>
+        <textField position="46"/>
+        <textField position="52"/>
+        <textField position="60"/>
+        <textField position="69"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" xr16:uid="{A994532B-BB92-4322-8618-FC84D8DE81CA}" name="200723_AlphaDiv_Rhizo_Sha" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\Fina\INRAE_Project\microservices\070623_AOB_out\stat_1k\200723_AlphaDiv_Rhizo_Sha.txt" delimited="0" decimal="," thousands=" ">
+      <textFields count="7">
+        <textField/>
+        <textField position="26"/>
+        <textField position="33"/>
+        <textField position="41"/>
+        <textField position="47"/>
+        <textField position="53"/>
+        <textField position="61"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" xr16:uid="{C5EA52AF-282F-44CB-A210-C2734BF1453F}" keepAlive="1" name="Query - 170723_Permanov_Bulk" description="Connection to the '170723_Permanov_Bulk' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=170723_Permanov_Bulk;Extended Properties=&quot;&quot;" command="SELECT * FROM [170723_Permanov_Bulk]"/>
   </connection>
-  <connection id="10" xr16:uid="{61C472F7-6B05-4C50-B9A9-B48BC1B718D1}" keepAlive="1" name="Query - 170723_Permanov_Bulk (2)" description="Connection to the '170723_Permanov_Bulk (2)' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="16" xr16:uid="{61C472F7-6B05-4C50-B9A9-B48BC1B718D1}" keepAlive="1" name="Query - 170723_Permanov_Bulk (2)" description="Connection to the '170723_Permanov_Bulk (2)' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;170723_Permanov_Bulk (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [170723_Permanov_Bulk (2)]"/>
   </connection>
-  <connection id="11" xr16:uid="{2C5788FC-2C4A-4C1D-8C46-3ACEF84D9615}" keepAlive="1" name="Query - 170723_Permanov_Bulk_WUF" description="Connection to the '170723_Permanov_Bulk_WUF' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="17" xr16:uid="{2C5788FC-2C4A-4C1D-8C46-3ACEF84D9615}" keepAlive="1" name="Query - 170723_Permanov_Bulk_WUF" description="Connection to the '170723_Permanov_Bulk_WUF' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=170723_Permanov_Bulk_WUF;Extended Properties=&quot;&quot;" command="SELECT * FROM [170723_Permanov_Bulk_WUF]"/>
   </connection>
-  <connection id="12" xr16:uid="{26FECB35-C877-424F-9E0D-8CDA05B0B069}" keepAlive="1" name="Query - 170723_Permanov_Bulk_WUF (2)" description="Connection to the '170723_Permanov_Bulk_WUF (2)' query in the workbook." type="5" refreshedVersion="0" background="1">
+  <connection id="18" xr16:uid="{26FECB35-C877-424F-9E0D-8CDA05B0B069}" keepAlive="1" name="Query - 170723_Permanov_Bulk_WUF (2)" description="Connection to the '170723_Permanov_Bulk_WUF (2)' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;170723_Permanov_Bulk_WUF (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [170723_Permanov_Bulk_WUF (2)]"/>
   </connection>
-  <connection id="13" xr16:uid="{28B87B64-FFDC-4B44-9AD4-0FB38C650887}" keepAlive="1" name="Query - 170723_Permanov_Rhizo" description="Connection to the '170723_Permanov_Rhizo' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="19" xr16:uid="{28B87B64-FFDC-4B44-9AD4-0FB38C650887}" keepAlive="1" name="Query - 170723_Permanov_Rhizo" description="Connection to the '170723_Permanov_Rhizo' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=170723_Permanov_Rhizo;Extended Properties=&quot;&quot;" command="SELECT * FROM [170723_Permanov_Rhizo]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="464">
   <si>
     <t>Irrigation</t>
   </si>
@@ -978,13 +1067,598 @@
   </si>
   <si>
     <t>adonis2(formula = aob.rh_dist_uwUF ~ Irrigation * Treatment * Date, data = aob.meta.rh, permutations = 999, strata = NULL)</t>
+  </si>
+  <si>
+    <t>6.36e-05</t>
+  </si>
+  <si>
+    <t>RICHNESS</t>
+  </si>
+  <si>
+    <t>Sum Sq</t>
+  </si>
+  <si>
+    <t>Mean Sq</t>
+  </si>
+  <si>
+    <t>NumDF</t>
+  </si>
+  <si>
+    <t>DenDF</t>
+  </si>
+  <si>
+    <t>F value</t>
+  </si>
+  <si>
+    <t>84.3</t>
+  </si>
+  <si>
+    <t>18.002</t>
+  </si>
+  <si>
+    <t>0.3029</t>
+  </si>
+  <si>
+    <t>0.5888428</t>
+  </si>
+  <si>
+    <t>11608.8</t>
+  </si>
+  <si>
+    <t>5804.4</t>
+  </si>
+  <si>
+    <t>17.995</t>
+  </si>
+  <si>
+    <t>20.8571</t>
+  </si>
+  <si>
+    <t>2.058e-05</t>
+  </si>
+  <si>
+    <t>6729.1</t>
+  </si>
+  <si>
+    <t>1682.3</t>
+  </si>
+  <si>
+    <t>71.203</t>
+  </si>
+  <si>
+    <t>6.0449</t>
+  </si>
+  <si>
+    <t>0.0003025</t>
+  </si>
+  <si>
+    <t>238.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>18.015</t>
+  </si>
+  <si>
+    <t>0.4277</t>
+  </si>
+  <si>
+    <t>0.6584815</t>
+  </si>
+  <si>
+    <t>607.7</t>
+  </si>
+  <si>
+    <t>151.9</t>
+  </si>
+  <si>
+    <t>71.237</t>
+  </si>
+  <si>
+    <t>0.5459</t>
+  </si>
+  <si>
+    <t>0.7025500</t>
+  </si>
+  <si>
+    <t>1710.3</t>
+  </si>
+  <si>
+    <t>213.8</t>
+  </si>
+  <si>
+    <t>71.230</t>
+  </si>
+  <si>
+    <t>0.7682</t>
+  </si>
+  <si>
+    <t>0.6317131</t>
+  </si>
+  <si>
+    <t>785.1</t>
+  </si>
+  <si>
+    <t>98.1</t>
+  </si>
+  <si>
+    <t>71.255</t>
+  </si>
+  <si>
+    <t>0.3527</t>
+  </si>
+  <si>
+    <t>0.9415670</t>
+  </si>
+  <si>
+    <t>Type II Analysis of Variance Table with Satterthwaite's method</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>15.84</t>
+  </si>
+  <si>
+    <t>0.0874</t>
+  </si>
+  <si>
+    <t>0.770885</t>
+  </si>
+  <si>
+    <t>3737.9</t>
+  </si>
+  <si>
+    <t>1868.96</t>
+  </si>
+  <si>
+    <t>10.3115</t>
+  </si>
+  <si>
+    <t>0.001037</t>
+  </si>
+  <si>
+    <t>875.7</t>
+  </si>
+  <si>
+    <t>437.85</t>
+  </si>
+  <si>
+    <t>2.4157</t>
+  </si>
+  <si>
+    <t>0.103644</t>
+  </si>
+  <si>
+    <t>142.0</t>
+  </si>
+  <si>
+    <t>71.02</t>
+  </si>
+  <si>
+    <t>0.3918</t>
+  </si>
+  <si>
+    <t>0.681458</t>
+  </si>
+  <si>
+    <t>910.9</t>
+  </si>
+  <si>
+    <t>455.43</t>
+  </si>
+  <si>
+    <t>2.5127</t>
+  </si>
+  <si>
+    <t>0.095167</t>
+  </si>
+  <si>
+    <t>78.5</t>
+  </si>
+  <si>
+    <t>19.63</t>
+  </si>
+  <si>
+    <t>0.1083</t>
+  </si>
+  <si>
+    <t>0.978869</t>
+  </si>
+  <si>
+    <t>143.7</t>
+  </si>
+  <si>
+    <t>35.93</t>
+  </si>
+  <si>
+    <t>0.1982</t>
+  </si>
+  <si>
+    <t>0.937669</t>
+  </si>
+  <si>
+    <t>SHANNON</t>
+  </si>
+  <si>
+    <t>0.4813011</t>
+  </si>
+  <si>
+    <t>0.0002232</t>
+  </si>
+  <si>
+    <t>0.0799092</t>
+  </si>
+  <si>
+    <t>0.9108573</t>
+  </si>
+  <si>
+    <t>0.8304488</t>
+  </si>
+  <si>
+    <t>0.9113861</t>
+  </si>
+  <si>
+    <t>0.6893537</t>
+  </si>
+  <si>
+    <t>0.04348</t>
+  </si>
+  <si>
+    <t>17.986</t>
+  </si>
+  <si>
+    <t>0.5171</t>
+  </si>
+  <si>
+    <t>2.33967</t>
+  </si>
+  <si>
+    <t>1.16983</t>
+  </si>
+  <si>
+    <t>17.979</t>
+  </si>
+  <si>
+    <t>13.9149</t>
+  </si>
+  <si>
+    <t>0.73309</t>
+  </si>
+  <si>
+    <t>0.18327</t>
+  </si>
+  <si>
+    <t>71.173</t>
+  </si>
+  <si>
+    <t>2.1800</t>
+  </si>
+  <si>
+    <t>0.01578</t>
+  </si>
+  <si>
+    <t>0.00789</t>
+  </si>
+  <si>
+    <t>17.998</t>
+  </si>
+  <si>
+    <t>0.0939</t>
+  </si>
+  <si>
+    <t>0.12385</t>
+  </si>
+  <si>
+    <t>0.03096</t>
+  </si>
+  <si>
+    <t>71.206</t>
+  </si>
+  <si>
+    <t>0.3683</t>
+  </si>
+  <si>
+    <t>0.27561</t>
+  </si>
+  <si>
+    <t>0.03445</t>
+  </si>
+  <si>
+    <t>71.199</t>
+  </si>
+  <si>
+    <t>0.4098</t>
+  </si>
+  <si>
+    <t>0.47161</t>
+  </si>
+  <si>
+    <t>0.05895</t>
+  </si>
+  <si>
+    <t>71.223</t>
+  </si>
+  <si>
+    <t>0.7012</t>
+  </si>
+  <si>
+    <t>0.00354</t>
+  </si>
+  <si>
+    <t>0.0757</t>
+  </si>
+  <si>
+    <t>0.7863354</t>
+  </si>
+  <si>
+    <t>1.46257</t>
+  </si>
+  <si>
+    <t>0.73128</t>
+  </si>
+  <si>
+    <t>15.6254</t>
+  </si>
+  <si>
+    <t>0.07232</t>
+  </si>
+  <si>
+    <t>0.03616</t>
+  </si>
+  <si>
+    <t>0.7726</t>
+  </si>
+  <si>
+    <t>0.4693128</t>
+  </si>
+  <si>
+    <t>0.05952</t>
+  </si>
+  <si>
+    <t>0.02976</t>
+  </si>
+  <si>
+    <t>0.6359</t>
+  </si>
+  <si>
+    <t>0.5409326</t>
+  </si>
+  <si>
+    <t>0.14947</t>
+  </si>
+  <si>
+    <t>0.07474</t>
+  </si>
+  <si>
+    <t>1.5969</t>
+  </si>
+  <si>
+    <t>0.2165424</t>
+  </si>
+  <si>
+    <t>0.05773</t>
+  </si>
+  <si>
+    <t>0.01443</t>
+  </si>
+  <si>
+    <t>0.3084</t>
+  </si>
+  <si>
+    <t>0.8704511</t>
+  </si>
+  <si>
+    <t>0.07021</t>
+  </si>
+  <si>
+    <t>0.01755</t>
+  </si>
+  <si>
+    <t>0.3750</t>
+  </si>
+  <si>
+    <t>0.8248977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0001163 </t>
+  </si>
+  <si>
+    <t>INVERSE SIMPSON</t>
+  </si>
+  <si>
+    <t>44.21</t>
+  </si>
+  <si>
+    <t>44.214</t>
+  </si>
+  <si>
+    <t>18.010</t>
+  </si>
+  <si>
+    <t>1.5990</t>
+  </si>
+  <si>
+    <t>0.22217</t>
+  </si>
+  <si>
+    <t>466.13</t>
+  </si>
+  <si>
+    <t>233.067</t>
+  </si>
+  <si>
+    <t>8.4288</t>
+  </si>
+  <si>
+    <t>0.00261 **</t>
+  </si>
+  <si>
+    <t>63.89</t>
+  </si>
+  <si>
+    <t>15.972</t>
+  </si>
+  <si>
+    <t>71.205</t>
+  </si>
+  <si>
+    <t>0.5776</t>
+  </si>
+  <si>
+    <t>0.67979</t>
+  </si>
+  <si>
+    <t>36.27</t>
+  </si>
+  <si>
+    <t>18.135</t>
+  </si>
+  <si>
+    <t>18.023</t>
+  </si>
+  <si>
+    <t>0.6558</t>
+  </si>
+  <si>
+    <t>0.53096</t>
+  </si>
+  <si>
+    <t>46.87</t>
+  </si>
+  <si>
+    <t>11.718</t>
+  </si>
+  <si>
+    <t>71.239</t>
+  </si>
+  <si>
+    <t>0.4238</t>
+  </si>
+  <si>
+    <t>0.79097</t>
+  </si>
+  <si>
+    <t>78.78</t>
+  </si>
+  <si>
+    <t>9.847</t>
+  </si>
+  <si>
+    <t>71.232</t>
+  </si>
+  <si>
+    <t>0.3561</t>
+  </si>
+  <si>
+    <t>0.93991</t>
+  </si>
+  <si>
+    <t>223.82</t>
+  </si>
+  <si>
+    <t>27.977</t>
+  </si>
+  <si>
+    <t>71.257</t>
+  </si>
+  <si>
+    <t>1.0118</t>
+  </si>
+  <si>
+    <t>0.43515</t>
+  </si>
+  <si>
+    <t>13.90</t>
+  </si>
+  <si>
+    <t>13.895</t>
+  </si>
+  <si>
+    <t>0.4526</t>
+  </si>
+  <si>
+    <t>0.509661</t>
+  </si>
+  <si>
+    <t>509.44</t>
+  </si>
+  <si>
+    <t>254.719</t>
+  </si>
+  <si>
+    <t>8.2963</t>
+  </si>
+  <si>
+    <t>0.002796 **</t>
+  </si>
+  <si>
+    <t>29.14</t>
+  </si>
+  <si>
+    <t>14.568</t>
+  </si>
+  <si>
+    <t>0.4745</t>
+  </si>
+  <si>
+    <t>0.626050</t>
+  </si>
+  <si>
+    <t>36.24</t>
+  </si>
+  <si>
+    <t>18.121</t>
+  </si>
+  <si>
+    <t>0.5902</t>
+  </si>
+  <si>
+    <t>0.564583</t>
+  </si>
+  <si>
+    <t>128.39</t>
+  </si>
+  <si>
+    <t>64.193</t>
+  </si>
+  <si>
+    <t>2.0908</t>
+  </si>
+  <si>
+    <t>0.138344</t>
+  </si>
+  <si>
+    <t>17.30</t>
+  </si>
+  <si>
+    <t>4.326</t>
+  </si>
+  <si>
+    <t>0.1409</t>
+  </si>
+  <si>
+    <t>0.965853</t>
+  </si>
+  <si>
+    <t>94.87</t>
+  </si>
+  <si>
+    <t>23.718</t>
+  </si>
+  <si>
+    <t>0.7725</t>
+  </si>
+  <si>
+    <t>0.550291</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,6 +1673,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1021,10 +1701,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1032,6 +1715,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,6 +1739,26 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="170723_Permanov_Bulk_UWUF" connectionId="3" xr16:uid="{BDE10CAE-DD59-430D-AD54-4BC9114657CE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="200723_AlphaDiv_Bulk_Sha_1" connectionId="11" xr16:uid="{0C7D3DE6-2AE3-4AAC-82AE-05186C2014F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="180723_AlphaDiv_Bulk_Rich" connectionId="9" xr16:uid="{BD63A40C-5904-445C-9A41-FF8902C5535F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="200723_AlphaDiv_Rhizo_InvSimp" connectionId="12" xr16:uid="{C24FC141-B0E5-40E3-87BA-3B64F0BEBE4A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="200723_AlphaDiv_Rhizo_Sha" connectionId="14" xr16:uid="{798F47A5-6049-42B9-9C09-940E5AA4B73C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="200723_AlphaDiv_Rhizo_Rich" connectionId="13" xr16:uid="{0A88AB63-2DBF-49EB-A489-F857C5667600}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1079,6 +1787,10 @@
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="170723_Permanov_Rhizo_BC" connectionId="5" xr16:uid="{7C2AA8CE-3D02-4730-A131-EB2DBD3B1980}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="200723_AlphaDiv_Bulk_InvSimp" connectionId="10" xr16:uid="{F0A0545C-D2B1-43CB-B1B3-78AB8CDF5FDF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1381,7 +2093,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G25"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,26 +2108,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1606,15 +2318,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1819,15 +2531,15 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2032,15 +2744,15 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2259,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52473331-176E-428E-B5F5-9284EB94FB2F}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,15 +2990,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2488,15 +3200,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2526,7 +3238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2546,7 +3258,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2569,7 +3281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2589,7 +3301,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2609,7 +3321,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2629,7 +3341,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2648,8 +3360,11 @@
       <c r="F22" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="U22" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2669,7 +3384,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2683,7 +3398,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2696,19 +3411,22 @@
       <c r="D25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="M25" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>238</v>
       </c>
@@ -2719,7 +3437,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2736,7 +3454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2782,7 +3500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2802,7 +3520,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2822,7 +3540,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2842,7 +3560,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2861,8 +3579,9 @@
       <c r="F35" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2882,7 +3601,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2896,7 +3615,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2910,18 +3629,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>268</v>
       </c>
@@ -2933,7 +3652,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +3669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2970,7 +3689,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2993,7 +3712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -3013,7 +3732,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -3033,7 +3752,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -3053,7 +3772,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -3131,6 +3850,1319 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A28:G28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA68AE4-8455-4AE9-91B4-E70F96A411DC}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" t="s">
+        <v>341</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" t="s">
+        <v>357</v>
+      </c>
+      <c r="G17" t="s">
+        <v>342</v>
+      </c>
+      <c r="H17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>364</v>
+      </c>
+      <c r="F19" t="s">
+        <v>365</v>
+      </c>
+      <c r="G19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>368</v>
+      </c>
+      <c r="F20" t="s">
+        <v>369</v>
+      </c>
+      <c r="G20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>372</v>
+      </c>
+      <c r="F21" t="s">
+        <v>373</v>
+      </c>
+      <c r="G21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>404</v>
+      </c>
+      <c r="F26" t="s">
+        <v>405</v>
+      </c>
+      <c r="G26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27" t="s">
+        <v>408</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" t="s">
+        <v>409</v>
+      </c>
+      <c r="G27" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C28" t="s">
+        <v>412</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>413</v>
+      </c>
+      <c r="F28" t="s">
+        <v>414</v>
+      </c>
+      <c r="G28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>418</v>
+      </c>
+      <c r="F29" t="s">
+        <v>419</v>
+      </c>
+      <c r="G29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" t="s">
+        <v>422</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>423</v>
+      </c>
+      <c r="F30" t="s">
+        <v>424</v>
+      </c>
+      <c r="G30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C31" t="s">
+        <v>427</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>428</v>
+      </c>
+      <c r="F31" t="s">
+        <v>429</v>
+      </c>
+      <c r="G31" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>431</v>
+      </c>
+      <c r="C32" t="s">
+        <v>432</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>433</v>
+      </c>
+      <c r="F32" t="s">
+        <v>434</v>
+      </c>
+      <c r="G32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BF6923-CF0D-4048-B4D7-5169BD8F0E12}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>375</v>
+      </c>
+      <c r="G15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>379</v>
+      </c>
+      <c r="G16" t="s">
+        <v>400</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>382</v>
+      </c>
+      <c r="G17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>390</v>
+      </c>
+      <c r="G19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>394</v>
+      </c>
+      <c r="G20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>398</v>
+      </c>
+      <c r="G21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26" t="s">
+        <v>437</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>438</v>
+      </c>
+      <c r="G26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>440</v>
+      </c>
+      <c r="C27" t="s">
+        <v>441</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>442</v>
+      </c>
+      <c r="G27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>444</v>
+      </c>
+      <c r="C28" t="s">
+        <v>445</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>446</v>
+      </c>
+      <c r="G28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" t="s">
+        <v>449</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>450</v>
+      </c>
+      <c r="G29" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C30" t="s">
+        <v>453</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>454</v>
+      </c>
+      <c r="G30" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" t="s">
+        <v>457</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>458</v>
+      </c>
+      <c r="G31" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>460</v>
+      </c>
+      <c r="C32" t="s">
+        <v>461</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>462</v>
+      </c>
+      <c r="G32" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/070623_AOB_out/AOB1k_stat.xlsx
+++ b/070623_AOB_out/AOB1k_stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fina\INRAE_Project\microservices\070623_AOB_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234ED1F9-ACF8-4F5D-A7F0-8BB56B2D9717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537C2902-C8AB-4C51-A90E-BAB33C3401CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{134D7EC5-53F7-43B5-A52F-D44BAD0F1A8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{134D7EC5-53F7-43B5-A52F-D44BAD0F1A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PERMANOV_Bulk" sheetId="4" r:id="rId1"/>
@@ -1704,15 +1704,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1720,6 +1711,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1738,15 +1738,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="170723_Permanov_Bulk_UWUF" connectionId="3" xr16:uid="{BDE10CAE-DD59-430D-AD54-4BC9114657CE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="170723_Permanov_Bulk" connectionId="1" xr16:uid="{86B2001C-1951-4940-BA0A-B4769F70ED71}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="200723_AlphaDiv_Bulk_Sha_1" connectionId="11" xr16:uid="{0C7D3DE6-2AE3-4AAC-82AE-05186C2014F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="180723_AlphaDiv_Bulk_Rich" connectionId="9" xr16:uid="{BD63A40C-5904-445C-9A41-FF8902C5535F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="180723_AlphaDiv_Bulk_Rich" connectionId="9" xr16:uid="{BD63A40C-5904-445C-9A41-FF8902C5535F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="200723_AlphaDiv_Bulk_InvSimp" connectionId="10" xr16:uid="{F0A0545C-D2B1-43CB-B1B3-78AB8CDF5FDF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1762,15 +1762,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="170723_Permanov_Bulk_UWUF" connectionId="3" xr16:uid="{BDE10CAE-DD59-430D-AD54-4BC9114657CE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="170723_Permanov_Bulk_WUF" connectionId="4" xr16:uid="{03A2B7BA-820C-4976-A746-1B374C2EED3C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="170723_Permanov_Bulk_JAC" connectionId="2" xr16:uid="{CFF1E672-523F-4218-8B11-9C620B55FFF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="170723_Permanov_Bulk" connectionId="1" xr16:uid="{86B2001C-1951-4940-BA0A-B4769F70ED71}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1790,7 +1790,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="200723_AlphaDiv_Bulk_InvSimp" connectionId="10" xr16:uid="{F0A0545C-D2B1-43CB-B1B3-78AB8CDF5FDF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="200723_AlphaDiv_Bulk_Sha_1" connectionId="11" xr16:uid="{0C7D3DE6-2AE3-4AAC-82AE-05186C2014F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2093,7 +2093,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A27" sqref="A27:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,26 +2108,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -2318,26 +2318,26 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -2531,26 +2531,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -2744,27 +2744,27 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -2973,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52473331-176E-428E-B5F5-9284EB94FB2F}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,26 +2990,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3200,26 +3200,26 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -3360,7 +3360,7 @@
       <c r="F22" t="s">
         <v>199</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3411,31 +3411,31 @@
       <c r="D25" t="s">
         <v>47</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -3579,7 +3579,7 @@
       <c r="F35" t="s">
         <v>230</v>
       </c>
-      <c r="M35" s="5"/>
+      <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3630,27 +3630,27 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -3861,7 +3861,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:G23"/>
+      <selection activeCell="A12" sqref="A12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,27 +3877,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3943,54 +3943,54 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4087,27 +4087,27 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -4297,27 +4297,27 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -4502,12 +4502,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4518,7 +4518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BF6923-CF0D-4048-B4D7-5169BD8F0E12}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -4535,27 +4535,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4745,27 +4745,27 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -4952,27 +4952,27 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -5157,12 +5157,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
